--- a/src/portas/portabilidad.xlsx
+++ b/src/portas/portabilidad.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,27 +511,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1077451995</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>40193</v>
+        <v>1040353836</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20/06/2005</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arelis Patricia</t>
+          <t>Jennys Johana</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mosquera Palacios</t>
+          <t xml:space="preserve"> García julio</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3011850230</v>
+        <v>3011843601</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765458</t>
+          <t xml:space="preserve"> 57101602503174720</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -539,7 +541,7 @@
         <v>1038626820</v>
       </c>
       <c r="I2" t="n">
-        <v>80606</v>
+        <v>66066</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -551,41 +553,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>regionExpedicion</t>
-        </is>
-      </c>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1038799846</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>38561</v>
+        <v>1036953222</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13/05/2013</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carlos Alberto</t>
+          <t>Lesly Vanessa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mosquera Moreno</t>
+          <t xml:space="preserve"> Lopez Gómez</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3011850188</v>
+        <v>3195467040</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765457</t>
+          <t xml:space="preserve"> 57101602608899181</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -593,7 +597,7 @@
         <v>1038626820</v>
       </c>
       <c r="I3" t="n">
-        <v>43757</v>
+        <v>99312</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -605,41 +609,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>region4</t>
-        </is>
-      </c>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1040794200</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>44502</v>
+        <v>50895483</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6/10/1989</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Moya Córdoba</t>
+          <t xml:space="preserve"> Hernández</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3011850275</v>
+        <v>3011847126</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765474</t>
+          <t xml:space="preserve"> 57101602502755659</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -647,7 +653,7 @@
         <v>1038626820</v>
       </c>
       <c r="I4" t="n">
-        <v>98068</v>
+        <v>99627</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -659,33 +665,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33993527</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>35821</v>
+        <v>1022094876</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9/01/2008</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yicenia Milena</t>
+          <t>Doralis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Giraldo Puerta</t>
+          <t xml:space="preserve"> Padilla</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3011850229</v>
+        <v>3011847129</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765465</t>
+          <t xml:space="preserve"> 57101602502755666</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -693,7 +709,7 @@
         <v>1038626820</v>
       </c>
       <c r="I5" t="n">
-        <v>44981</v>
+        <v>78303</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -705,33 +721,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1038810739</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>40465</v>
+        <v>15527610</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eider Emilio</t>
+          <t>Norberto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rodriguez Vanegas</t>
+          <t xml:space="preserve"> Henao</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3011850272</v>
+        <v>3017579463</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502780792</t>
+          <t xml:space="preserve"> 57101602706012297</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -739,7 +765,7 @@
         <v>1038626820</v>
       </c>
       <c r="I6" t="n">
-        <v>90889</v>
+        <v>52570</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -751,33 +777,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1038824059</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>43041</v>
+        <v>15527609</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mileydy</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vergara Cartagena</t>
+          <t xml:space="preserve"> Pulgarín</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3011850270</v>
+        <v>3017397475</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502640187</t>
+          <t xml:space="preserve"> 57101602706012298</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -785,7 +821,7 @@
         <v>1038626820</v>
       </c>
       <c r="I7" t="n">
-        <v>67358</v>
+        <v>86141</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -797,33 +833,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1001033139</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>43292</v>
+        <v>15527609</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Neyder Alberto</t>
+          <t>León</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Leudo Machado</t>
+          <t xml:space="preserve"> Pulgarin</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3052528955</v>
+        <v>3017396445</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502660172</t>
+          <t xml:space="preserve"> 57101602706012299</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -831,7 +877,7 @@
         <v>1038626820</v>
       </c>
       <c r="I8" t="n">
-        <v>17301</v>
+        <v>2350</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -843,33 +889,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1063365545</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>41696</v>
+        <v>15527609</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Orley Patricia</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Polo Vega</t>
+          <t xml:space="preserve"> Pulgarin</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3011850274</v>
+        <v>3017392786</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502780804</t>
+          <t xml:space="preserve"> 57101602706012300</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -877,7 +933,7 @@
         <v>1038626820</v>
       </c>
       <c r="I9" t="n">
-        <v>56542</v>
+        <v>84388</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -889,33 +945,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1028041342</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>43062</v>
+        <v>15527608</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yoser Esteban</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peña Urango</t>
+          <t xml:space="preserve"> Giraldo</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3052528512</v>
+        <v>3017397356</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502660173</t>
+          <t xml:space="preserve"> 57101602706012301</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -923,7 +989,7 @@
         <v>1038626820</v>
       </c>
       <c r="I10" t="n">
-        <v>27660</v>
+        <v>89958</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -935,33 +1001,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74866087</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>36857</v>
+        <v>15527608</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mario Eslitd</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ceron Velandia</t>
+          <t xml:space="preserve"> Giraldo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3011850228</v>
+        <v>3017397775</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765454</t>
+          <t xml:space="preserve"> 57101602706012302</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -969,7 +1045,7 @@
         <v>1038626820</v>
       </c>
       <c r="I11" t="n">
-        <v>52548</v>
+        <v>64907</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -981,33 +1057,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84044466</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>30629</v>
+        <v>15527608</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Héctor Manuel</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cárdenas cortina</t>
+          <t xml:space="preserve"> Giraldo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3053096639</v>
+        <v>3017397805</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502660174</t>
+          <t xml:space="preserve"> 57101602706012303</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1015,7 +1101,7 @@
         <v>1038626820</v>
       </c>
       <c r="I12" t="n">
-        <v>99997</v>
+        <v>23423</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1027,33 +1113,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1039092107</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>40319</v>
+        <v>15527607</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Marta Cecilia</t>
+          <t>Alberto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beltrán anacharico</t>
+          <t xml:space="preserve"> Sierra</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3052528794</v>
+        <v>3017397806</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502660175</t>
+          <t xml:space="preserve"> 57101602706012304</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1061,7 +1157,7 @@
         <v>1038626820</v>
       </c>
       <c r="I13" t="n">
-        <v>618</v>
+        <v>31620</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1073,33 +1169,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>42025330</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>32714</v>
+        <v>15527607</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aida Rosana</t>
+          <t>Alberto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Serna Trujillo</t>
+          <t xml:space="preserve"> Sierra</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3052529176</v>
+        <v>3017398532</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502660176</t>
+          <t xml:space="preserve"> 57101602706012306</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1107,7 +1213,7 @@
         <v>1038626820</v>
       </c>
       <c r="I14" t="n">
-        <v>79602</v>
+        <v>26325</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1119,33 +1225,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>71948590</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>35826</v>
+        <v>15527607</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18/07/1983</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wilver</t>
+          <t>Alberto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gordon Anaya</t>
+          <t xml:space="preserve"> Sierra</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3052529000</v>
+        <v>3017397884</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502660177</t>
+          <t xml:space="preserve"> 57101602706012307</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1153,7 +1269,7 @@
         <v>1038626820</v>
       </c>
       <c r="I15" t="n">
-        <v>33520</v>
+        <v>73281</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1165,33 +1281,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8336735</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>31023</v>
+        <v>98703746</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16/08/2001</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fernel</t>
+          <t>Andres</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hernández Pérez</t>
+          <t xml:space="preserve"> Benjumea</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3053096632</v>
+        <v>3017401103</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502660178</t>
+          <t xml:space="preserve"> 57101602706012308</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1199,7 +1325,7 @@
         <v>1038626820</v>
       </c>
       <c r="I16" t="n">
-        <v>44311</v>
+        <v>19811</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1211,41 +1337,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12524554</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>37193</v>
+        <v>32288021</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9/10/1989</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eliecer Gregorio</t>
+          <t>Ana maria</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domínguez de la cruz</t>
+          <t xml:space="preserve"> ramos</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3052528708</v>
+        <v>3011843371</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502660179</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602406072823</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3103615931</v>
+      </c>
       <c r="H17" t="n">
         <v>1038626820</v>
       </c>
       <c r="I17" t="n">
-        <v>86224</v>
+        <v>28432</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1257,33 +1395,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>La Dupla ICCID - MSISDN NO corresponde, no se puede continuar con la Activacion.</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1038807594</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>31020</v>
+        <v>43909096</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23/08/2000</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Karina</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sepulveda Arias</t>
+          <t xml:space="preserve"> Blandón serna</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3011850226</v>
+        <v>3216588797</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765455</t>
+          <t xml:space="preserve"> 57101602503552592</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1291,7 +1439,7 @@
         <v>1038626820</v>
       </c>
       <c r="I18" t="n">
-        <v>18626</v>
+        <v>86752</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1303,41 +1451,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1037150305</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>37977</v>
+        <v>4825440</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23/09/1986</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jannys</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Colorado Vargas</t>
+          <t xml:space="preserve"> Palacios Castro</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3011850273</v>
+        <v>3011846977</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502780793</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602705988052</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3148235865</v>
+      </c>
       <c r="H19" t="n">
         <v>1038626820</v>
       </c>
       <c r="I19" t="n">
-        <v>98244</v>
+        <v>96529</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1349,33 +1509,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>La Dupla ICCID - MSISDN NO corresponde, no se puede continuar con la Activacion.</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1152454634</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45113</v>
+        <v>22229224</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20/04/1981</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>prueba</t>
+          <t>Luz dary</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cruz</t>
+          <t xml:space="preserve"> Gutierrez de Vargas</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3113698212</v>
+        <v>3017581628</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6789012345678</t>
+          <t xml:space="preserve"> 57101602512360429</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1383,7 +1553,7 @@
         <v>1038626820</v>
       </c>
       <c r="I20" t="n">
-        <v>55555</v>
+        <v>20879</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1395,41 +1565,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>El NIP no se encuentra vigente</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4444444</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>40002</v>
+        <v>1121893386</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14/10/2010</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>rafael</t>
+          <t>Diego Andrés</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> prueba</t>
+          <t xml:space="preserve"> Pérez salinas</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3113687312</v>
+        <v>3011846159</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 678901234566</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016042</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3148293739</v>
+      </c>
       <c r="H21" t="n">
         <v>1038626820</v>
       </c>
       <c r="I21" t="n">
-        <v>66666</v>
+        <v>69091</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1441,41 +1623,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>El numero 3011846159 no tiene solicitud de NIP Vigente</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8438540</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>37285</v>
+        <v>14572367</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5/01/2004</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yuber</t>
+          <t>Andrés Felipe</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Murillo Córdoba</t>
+          <t xml:space="preserve"> Cataño bolivar</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3011850262</v>
+        <v>3811846954</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669138</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016048</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3148296415</v>
+      </c>
       <c r="H22" t="n">
         <v>1038626820</v>
       </c>
       <c r="I22" t="n">
-        <v>7971</v>
+        <v>5834</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1487,41 +1681,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>El Min no se encontro en ningun rango de numeración valido</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4444</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>40002</v>
+        <v>3249871</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13/08/1974</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PRUEBA</t>
+          <t>Nury</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRUEBA</t>
+          <t xml:space="preserve"> Restrepo bloise</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3126727278</v>
+        <v>3011845718</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 678901234567</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602716016061</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3148298863</v>
+      </c>
       <c r="H23" t="n">
         <v>1038626820</v>
       </c>
       <c r="I23" t="n">
-        <v>666666</v>
+        <v>41071</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1533,41 +1739,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1040377768</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>42172</v>
+        <v>55156576</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14/04/1988</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yerlis Viviana</t>
+          <t>AURA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Avila Ortiz</t>
+          <t xml:space="preserve"> MELENDEZ MEDINA</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3011850276</v>
+        <v>3137202949</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669150</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602605293308</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3234340992</v>
+      </c>
       <c r="H24" t="n">
         <v>1038626820</v>
       </c>
       <c r="I24" t="n">
-        <v>8312</v>
+        <v>25531</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1579,33 +1797,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>44042875</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>131.53</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1152454634</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>37285</v>
+        <v>22229225</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20/04/1981</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>prueba</t>
+          <t>Marta ines</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cruz</t>
+          <t xml:space="preserve"> Tobon de Morales</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3126272722</v>
+        <v>3017588540</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 678901234567</t>
+          <t xml:space="preserve"> 57101602512362010</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1613,7 +1841,7 @@
         <v>1038626820</v>
       </c>
       <c r="I25" t="n">
-        <v>666666</v>
+        <v>99245</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1625,41 +1853,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>44041873</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>143.1</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>32288912</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>32812</v>
+        <v>1040033933</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5/05/2006</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ana Demetria</t>
+          <t>eduardo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Avila Ortiz</t>
+          <t xml:space="preserve"> castro</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3011850249</v>
+        <v>3011845693</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669149</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016050</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3148297647</v>
+      </c>
       <c r="H26" t="n">
         <v>1038626820</v>
       </c>
       <c r="I26" t="n">
-        <v>63101</v>
+        <v>74172</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1671,41 +1911,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>44042978</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>152.73</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1038813806</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>40948</v>
+        <v>21908950</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>29/04/1983</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yessica Paola</t>
+          <t>Mariela</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Santana Hernandez</t>
+          <t xml:space="preserve"> Marín atehortua</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3011850249</v>
+        <v>3011845692</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669148</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016051</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3148296379</v>
+      </c>
       <c r="H27" t="n">
         <v>1038626820</v>
       </c>
       <c r="I27" t="n">
-        <v>61604</v>
+        <v>45376</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1717,41 +1969,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>44043084</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>129.67</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>444444</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>47220</v>
+        <v>1045024514</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20/11/2014</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>prueba 3</t>
+          <t>Yésica Manuela</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> prueba</t>
+          <t xml:space="preserve"> Gómez Gomez</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3116578383</v>
+        <v>3011846955</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 678901234567</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016052</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3148295173</v>
+      </c>
       <c r="H28" t="n">
         <v>1038626820</v>
       </c>
       <c r="I28" t="n">
-        <v>99998</v>
+        <v>52516</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1763,41 +2027,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>44043164</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>129.13</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>22144471</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>38034</v>
+        <v>1036782824</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>23/07/2012</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Doris</t>
+          <t>HUBER ANDRES</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yepez</t>
+          <t xml:space="preserve"> MARTINEZ GIRALDO</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3011849807</v>
+        <v>3011846950</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602003056895</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016053</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3148295166</v>
+      </c>
       <c r="H29" t="n">
         <v>1038626820</v>
       </c>
       <c r="I29" t="n">
-        <v>89174</v>
+        <v>91239</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1809,41 +2085,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>44043297</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>152.69</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1038808871</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>40148</v>
+        <v>1042771072</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16/05/2011</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Danis</t>
+          <t>YESSICA STEFANY</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rivas Perez</t>
+          <t xml:space="preserve"> CARDONA MARULANDA</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3011850257</v>
+        <v>3011846950</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669146</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016054</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3148295140</v>
+      </c>
       <c r="H30" t="n">
         <v>1038626820</v>
       </c>
       <c r="I30" t="n">
-        <v>38378</v>
+        <v>55474</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1855,41 +2143,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>La linea actualmente se encuentra en proceso de venta</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1038813806</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>40948</v>
+        <v>1040039478</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4/05/2009</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yessica Paola</t>
+          <t>juliana</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Santana Hernandez</t>
+          <t xml:space="preserve"> marulanda osorio</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3011850259</v>
+        <v>3011846951</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669147</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016055</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3148295124</v>
+      </c>
       <c r="H31" t="n">
         <v>1038626820</v>
       </c>
       <c r="I31" t="n">
-        <v>70768</v>
+        <v>99484</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1901,41 +2201,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>44043439</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>153.56</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1037480057</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>40266</v>
+        <v>44004497</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>14/05/2003</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yurley</t>
+          <t>Angela maría</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yepes</t>
+          <t xml:space="preserve"> Gomez Galeano</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3011849791</v>
+        <v>3011846952</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602003056902</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016056</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3148293875</v>
+      </c>
       <c r="H32" t="n">
         <v>1038626820</v>
       </c>
       <c r="I32" t="n">
-        <v>22037</v>
+        <v>89581</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1947,41 +2259,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>44043509</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>133.28</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1038808871</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>40148</v>
+        <v>39438876</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6/05/1985</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Danis</t>
+          <t>Rosa Elena</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rivas Perez</t>
+          <t xml:space="preserve"> Sánchez mejia</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3011850208</v>
+        <v>3011846992</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669144</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016057</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3148292629</v>
+      </c>
       <c r="H33" t="n">
         <v>1038626820</v>
       </c>
       <c r="I33" t="n">
-        <v>60358</v>
+        <v>17905</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1993,41 +2317,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>44043600</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>152.93</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1192817876</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>43731</v>
+        <v>1028011517</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22/02/2011</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Laura Sthefania</t>
+          <t>FERNEY</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pareja Valderrama</t>
+          <t xml:space="preserve"> ALMAIRO CORDERO</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3011850564</v>
+        <v>3011846992</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669143</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016058</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3148292620</v>
+      </c>
       <c r="H34" t="n">
         <v>1038626820</v>
       </c>
       <c r="I34" t="n">
-        <v>8046</v>
+        <v>45055</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2039,41 +2375,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>La linea actualmente se encuentra en proceso de venta</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1192817876</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>43731</v>
+        <v>21463043</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>16/07/1980</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Laura Sthefany</t>
+          <t>Maria olga</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pareja Valderrama</t>
+          <t xml:space="preserve"> Arbelaez blandon</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3011850210</v>
+        <v>3011846989</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669141</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016069</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3148295064</v>
+      </c>
       <c r="H35" t="n">
         <v>1038626820</v>
       </c>
       <c r="I35" t="n">
-        <v>59365</v>
+        <v>92325</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2086,40 +2434,46 @@
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1007669574</v>
+        <v>3622291</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43333</v>
+        <v>29476</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yubeidy Cristina</t>
+          <t>Luis Eduardo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Velasquez Mosquera</t>
+          <t xml:space="preserve"> Mejía</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3011850200</v>
+        <v>3011846969</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669139</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016067</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>3148297563</v>
+      </c>
       <c r="H36" t="n">
         <v>1038626820</v>
       </c>
       <c r="I36" t="n">
-        <v>80357</v>
+        <v>8267</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2131,41 +2485,53 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>44043933</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>133.22</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1007669574</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>43333</v>
+        <v>7921517</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yubeidy Cristina</t>
+          <t>José Leónidas</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Velasquez Mosquera</t>
+          <t xml:space="preserve"> Castellón Zúñiga</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3011850251</v>
+        <v>3011846958</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502669140</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t xml:space="preserve"> 57101602706016072</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3148293832</v>
+      </c>
       <c r="H37" t="n">
         <v>1038626820</v>
       </c>
       <c r="I37" t="n">
-        <v>73574</v>
+        <v>64825</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2177,33 +2543,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>44044040</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>154.17</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1192921859</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>36934</v>
+        <v>1032379459</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Faisury</t>
+          <t>SERGIO ARM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Borja Celada</t>
+          <t xml:space="preserve"> FRESNEDA</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3011850190</v>
+        <v>3024509566</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502668938</t>
+          <t xml:space="preserve"> 57101602503707127</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2211,7 +2587,7 @@
         <v>1038626820</v>
       </c>
       <c r="I38" t="n">
-        <v>67418</v>
+        <v>45531</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2223,33 +2599,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>44044144</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1001446936</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>44041</v>
+        <v>30770177</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>jose ricardo</t>
+          <t>CARMEN ROS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> martinez garcia</t>
+          <t xml:space="preserve"> ESPINOSA</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3192289580</v>
+        <v>3024593642</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602608054827</t>
+          <t xml:space="preserve"> 57101602503707138</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2257,7 +2643,7 @@
         <v>1038626820</v>
       </c>
       <c r="I39" t="n">
-        <v>36200</v>
+        <v>55545</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2269,33 +2655,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>44044239</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>139.67</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>70540808</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>35801</v>
+        <v>800251569</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aníbal</t>
+          <t xml:space="preserve">INTER </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Londoy</t>
+          <t xml:space="preserve"> RAPIDISIMO</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3016889751</v>
+        <v>3113103366</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602503333893</t>
+          <t xml:space="preserve"> 57101602503707153</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2303,7 +2699,7 @@
         <v>1038626820</v>
       </c>
       <c r="I40" t="n">
-        <v>17701</v>
+        <v>8548</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2316,32 +2712,38 @@
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1147958075</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>40724</v>
+        <v>79650288</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Janis paola</t>
+          <t>JUAN MAURI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lancé nieves</t>
+          <t xml:space="preserve"> ROMERO</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3116846832</v>
+        <v>3005788537</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602608053684</t>
+          <t xml:space="preserve"> 57101602503707235</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2349,7 +2751,7 @@
         <v>1038626820</v>
       </c>
       <c r="I41" t="n">
-        <v>622763</v>
+        <v>95077</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2362,32 +2764,38 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43973130</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>37378</v>
+        <v>22600955</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LINA MARCELA</t>
+          <t xml:space="preserve">ISOLETH </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALBIN GONZALEZ</t>
+          <t xml:space="preserve"> ALMANZA</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3012646234</v>
+        <v>3005787466</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765702</t>
+          <t xml:space="preserve"> 57101602503707276</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2395,7 +2803,7 @@
         <v>1038626820</v>
       </c>
       <c r="I42" t="n">
-        <v>78737</v>
+        <v>9641</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2408,32 +2816,38 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43973128</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>37378</v>
+        <v>33750807</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LUZ PIEDAD</t>
+          <t>PAOLA ANDR</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GOMEZ</t>
+          <t xml:space="preserve"> TRUJILLO</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3012645631</v>
+        <v>3005790521</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765701</t>
+          <t xml:space="preserve"> 57101602503707562</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2441,7 +2855,7 @@
         <v>1038626820</v>
       </c>
       <c r="I43" t="n">
-        <v>69139</v>
+        <v>8313</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2453,33 +2867,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>44044649</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>137.56</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43973127</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>37378</v>
+        <v>1012334002</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LILIANA PATRICIA</t>
+          <t>FABIAN EST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALVAREZ GOMEZ</t>
+          <t xml:space="preserve"> PEREZ</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3012644963</v>
+        <v>3005790584</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765700</t>
+          <t xml:space="preserve"> 57101602503707573</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2487,7 +2911,7 @@
         <v>1038626820</v>
       </c>
       <c r="I44" t="n">
-        <v>61131</v>
+        <v>76697</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2499,33 +2923,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>44044748</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>138.83</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43973126</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>37378</v>
+        <v>1026588806</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LEIDY ANDREA</t>
+          <t>JUAN DAVID</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> URAN HURTADO</t>
+          <t xml:space="preserve"> LIMAS</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3012629395</v>
+        <v>3005790410</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765699</t>
+          <t xml:space="preserve"> 57101602503707580</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2533,7 +2967,7 @@
         <v>1038626820</v>
       </c>
       <c r="I45" t="n">
-        <v>63102</v>
+        <v>29252</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2545,33 +2979,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>44044837</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>137.75</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43973125</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>37378</v>
+        <v>1061817848</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LINA MARCELA</t>
+          <t>YULI VANES</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CARVAJAL MORALES</t>
+          <t xml:space="preserve"> MARTINEZ</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3012645442</v>
+        <v>3005790428</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765698</t>
+          <t xml:space="preserve"> 57101602503707582</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2579,7 +3023,7 @@
         <v>1038626820</v>
       </c>
       <c r="I46" t="n">
-        <v>45334</v>
+        <v>66959</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2591,33 +3035,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>44045020</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>139.67</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43973124</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>37378</v>
+        <v>39678542</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FALON TATIANA</t>
+          <t>NELLY LILI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GAVIRIA JARAMILLO</t>
+          <t xml:space="preserve"> ROMERO</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3012645877</v>
+        <v>3005790715</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765697</t>
+          <t xml:space="preserve"> 57101602503707588</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2625,7 +3079,7 @@
         <v>1038626820</v>
       </c>
       <c r="I47" t="n">
-        <v>46062</v>
+        <v>38660</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2637,33 +3091,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>44045109</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>139.18</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43973123</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>37378</v>
+        <v>1015466692</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MARIA CRISTINA</t>
+          <t>MARIA DANI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUÑOZ CASTRILLON</t>
+          <t xml:space="preserve"> ROA</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3012645703</v>
+        <v>3005790846</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765657</t>
+          <t xml:space="preserve"> 57101602503707591</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2671,7 +3135,7 @@
         <v>1038626820</v>
       </c>
       <c r="I48" t="n">
-        <v>35393</v>
+        <v>24705</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2683,33 +3147,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>44045194</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>138.21</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43973122</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>37378</v>
+        <v>8507306</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DIANA PATRICIA</t>
+          <t>LUIS CARLO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VELEZ MONTOYA</t>
+          <t xml:space="preserve"> MORENO</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3012645815</v>
+        <v>3005790822</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765659</t>
+          <t xml:space="preserve"> 57101602503707592</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2717,7 +3191,7 @@
         <v>1038626820</v>
       </c>
       <c r="I49" t="n">
-        <v>93191</v>
+        <v>30028</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2729,33 +3203,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>44045293</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>138.86</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43973121</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>37378</v>
+        <v>26331198</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ERIKA MARCELA</t>
+          <t>ROCIO DE J</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SANTAMARIA RESTREPO</t>
+          <t xml:space="preserve"> GOMEZ</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3012632022</v>
+        <v>3005790714</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765660</t>
+          <t xml:space="preserve"> 57101602503707601</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2763,7 +3247,7 @@
         <v>1038626820</v>
       </c>
       <c r="I50" t="n">
-        <v>34678</v>
+        <v>93161</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2775,33 +3259,43 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>44045402</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>160.17</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43973120</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>37378</v>
+        <v>1123629392</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ERIKA SUSANA</t>
+          <t xml:space="preserve">ZEZELIA </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AVILA OSPINA</t>
+          <t xml:space="preserve"> JIMENEZ</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3012645376</v>
+        <v>3005790900</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 602502765658</t>
+          <t xml:space="preserve"> 57101602503707605</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2809,7 +3303,7 @@
         <v>1038626820</v>
       </c>
       <c r="I51" t="n">
-        <v>10343</v>
+        <v>43508</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2822,8 +3316,456 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>18512839</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DIEGO ALBE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRANCO</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3005784336</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503707613</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I52" t="n">
+        <v>29773</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>DOCUMENTO NO APLICA PARA ACTIVACIÓN POLIEDRO</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1070016247</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CRISTIAN D</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORREA</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3005784277</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503707617</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11724</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1128384209</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KARINA VAN</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VALENCIA</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3005784273</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503707618</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I54" t="n">
+        <v>98900</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>44045864</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>159.6</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35254983</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>EYDA PILAR</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MORALES</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3005784269</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503707619</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I55" t="n">
+        <v>74175</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>44045977</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>137.74</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>19365242</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAURICIO </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GUEVARA</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3005784262</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503707620</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3806</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>44046076</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>138.23</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>12402079</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NEFTALY </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESPANA</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3005784247</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503707621</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I57" t="n">
+        <v>31595</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>44046203</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>158.69</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1010186191</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>JAVIER IGN</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3005784218</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503707622</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I58" t="n">
+        <v>54956</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>44046407</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>139.18</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>80404022</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2/01/1997</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YOVANNY </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BEJARANO</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3005784463</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503707623</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I59" t="n">
+        <v>47390</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>DOCUMENTO NO APLICA PARA ACTIVACIÓN POLIEDRO</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/portas/portabilidad.xlsx
+++ b/src/portas/portabilidad.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,27 +511,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1082243472</v>
-      </c>
-      <c r="B2" t="n">
-        <v>31295</v>
+        <v>901202094</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BEATRIZ MA</t>
+          <t xml:space="preserve">DIVINA    </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ALVAREZ</t>
+          <t>INSPIRACION</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3243111179</v>
+        <v>3243071215</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899980</t>
+          <t xml:space="preserve"> 57101602503920818</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -535,7 +539,7 @@
         <v>1038626820</v>
       </c>
       <c r="I2" t="n">
-        <v>26195</v>
+        <v>34705</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -554,34 +558,34 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Se necesita Min preactivado</t>
+          <t>No se admite cedula de 9 digitos</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1136884465</v>
-      </c>
-      <c r="B3" t="n">
-        <v>31295</v>
+        <v>1069738505</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEBASTIAN </t>
+          <t>JOHAN SEBA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DELGADILLO</t>
+          <t>PARRA</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3243111180</v>
+        <v>3243071216</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899981</t>
+          <t xml:space="preserve"> 57101602503920819</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -589,7 +593,7 @@
         <v>1038626820</v>
       </c>
       <c r="I3" t="n">
-        <v>57362</v>
+        <v>80603</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -601,41 +605,39 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+      <c r="L3" t="n">
+        <v>44537033</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Se necesita Min preactivado</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>41689287</v>
-      </c>
-      <c r="B4" t="n">
-        <v>31295</v>
+        <v>1143248074</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALBA GLORI</t>
+          <t xml:space="preserve">JHONNATAN </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VILLABON</t>
+          <t>SANJUAN</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3243111190</v>
+        <v>3243071217</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899982</t>
+          <t xml:space="preserve"> 57101602503920820</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -643,7 +645,7 @@
         <v>1038626820</v>
       </c>
       <c r="I4" t="n">
-        <v>55271</v>
+        <v>46010</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -655,37 +657,37 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+      <c r="L4" t="n">
+        <v>44537114</v>
+      </c>
+      <c r="M4" t="n">
+        <v>157.2</v>
       </c>
       <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17682367</v>
-      </c>
-      <c r="B5" t="n">
-        <v>31295</v>
+        <v>1126241153</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JOSE RAMIR</t>
+          <t xml:space="preserve">YULIBETH  </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AVILA</t>
+          <t>RANGEL</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3243111193</v>
+        <v>3243071225</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899983</t>
+          <t xml:space="preserve"> 57101602503920821</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -693,7 +695,7 @@
         <v>1038626820</v>
       </c>
       <c r="I5" t="n">
-        <v>11908</v>
+        <v>22719</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -705,41 +707,39 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>44408650</t>
-        </is>
+      <c r="L5" t="n">
+        <v>44539781</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>253.77</t>
+          <t>155.44</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1225091645</v>
-      </c>
-      <c r="B6" t="n">
-        <v>31295</v>
+        <v>1017240791</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">YANKELA   </t>
+          <t>JUAN CAMIL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARENAS</t>
+          <t>STERLING</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3243111200</v>
+        <v>3243071226</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899984</t>
+          <t xml:space="preserve"> 57101602503920822</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -747,7 +747,7 @@
         <v>1038626820</v>
       </c>
       <c r="I6" t="n">
-        <v>22359</v>
+        <v>22897</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -761,39 +761,39 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>44408808</t>
+          <t>error</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>176.17</t>
+          <t>Se necesita Min preactivado</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1112493525</v>
-      </c>
-      <c r="B7" t="n">
-        <v>31295</v>
+        <v>52655513</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIANA CARO</t>
+          <t xml:space="preserve">ANGELA    </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OROZCO</t>
+          <t>RICO</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3243111213</v>
+        <v>3243071227</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899985</t>
+          <t xml:space="preserve"> 57101602503920823</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -801,7 +801,7 @@
         <v>1038626820</v>
       </c>
       <c r="I7" t="n">
-        <v>5840</v>
+        <v>34023</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -813,41 +813,39 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>44408945</t>
-        </is>
+      <c r="L7" t="n">
+        <v>44537364</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>178.13</t>
+          <t>error</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1090536721</v>
-      </c>
-      <c r="B8" t="n">
-        <v>31295</v>
+        <v>1109301846</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ORLANDO AN</t>
+          <t>ANDRES FEL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEZA</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3243111214</v>
+        <v>3243071229</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899986</t>
+          <t xml:space="preserve"> 57101602503920824</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -855,7 +853,7 @@
         <v>1038626820</v>
       </c>
       <c r="I8" t="n">
-        <v>27636</v>
+        <v>26470</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -867,33 +865,37 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>44537448</v>
+      </c>
+      <c r="M8" t="n">
+        <v>178.35</v>
+      </c>
       <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85475704</v>
-      </c>
-      <c r="B9" t="n">
-        <v>31295</v>
+        <v>1126256195</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CESAR ALEX</t>
+          <t>CARLOS ERN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3243111215</v>
+        <v>3243071234</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899987</t>
+          <t xml:space="preserve"> 57101602503920825</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -901,7 +903,7 @@
         <v>1038626820</v>
       </c>
       <c r="I9" t="n">
-        <v>6087</v>
+        <v>23483</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -913,33 +915,37 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>44537523</v>
+      </c>
+      <c r="M9" t="n">
+        <v>158.68</v>
+      </c>
       <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1056688430</v>
-      </c>
-      <c r="B10" t="n">
-        <v>31295</v>
+        <v>41920294</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDWIN     </t>
+          <t>DANIEL ALE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VILLALOBOS</t>
+          <t>MARIN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3243110960</v>
+        <v>3243071236</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899988</t>
+          <t xml:space="preserve"> 57101602503920826</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -947,7 +953,7 @@
         <v>1038626820</v>
       </c>
       <c r="I10" t="n">
-        <v>68282</v>
+        <v>96036</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -959,33 +965,37 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>44537594</v>
+      </c>
+      <c r="M10" t="n">
+        <v>155.48</v>
+      </c>
       <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>52546391</v>
-      </c>
-      <c r="B11" t="n">
-        <v>31295</v>
+        <v>16916234</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>32725</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESNEDA    </t>
+          <t xml:space="preserve">GIESOTH   </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SANCHEZ</t>
+          <t>MURILLO</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3243110966</v>
+        <v>3243071238</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57101602503899989</t>
+          <t xml:space="preserve"> 57101602503920827</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -993,7 +1003,7 @@
         <v>1038626820</v>
       </c>
       <c r="I11" t="n">
-        <v>12303</v>
+        <v>65118</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1005,9 +1015,8695 @@
           <t>prepago</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>44537743</v>
+      </c>
+      <c r="M11" t="n">
+        <v>155.77</v>
+      </c>
       <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>26476824</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALICIA    </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3243071245</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920828</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I12" t="n">
+        <v>93741</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>44537832</v>
+      </c>
+      <c r="M12" t="n">
+        <v>178.45</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1053770362</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DANIEL EDU</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PINZON</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3243071246</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920829</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25182</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>44537922</v>
+      </c>
+      <c r="M13" t="n">
+        <v>178.88</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1037575444</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAROLINA  </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AGUDELO</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3243071248</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920830</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I14" t="n">
+        <v>765</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>44538020</v>
+      </c>
+      <c r="M14" t="n">
+        <v>178.11</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>79727457</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OSCAR     </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CRUZ</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3243071251</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920831</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4820</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>43684289</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DIANA JANN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>POSADA</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3243071256</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920832</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I16" t="n">
+        <v>27718</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1000321317</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>JERSON DEI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TRIANA</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3243071257</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920833</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12947</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4280274</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ORLANDO   </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GUIO</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3243071258</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920834</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34967</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>91535658</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>OSCAR FERN</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3243071268</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920835</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14319</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28731696</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASTRID    </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AVENDANO</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3243071269</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920836</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4275</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>87947717</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEONARDO  </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CASTILLO</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3243071271</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920837</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5324</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32813515</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MARIA ESTE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MUNOZ</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3243071274</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920838</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I22" t="n">
+        <v>96319</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16915256</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>JOHN CARLO</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BERNAL</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3243071010</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920839</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I23" t="n">
+        <v>48542</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37547716</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GINNA MARC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>HERRERA</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3243071025</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920840</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I24" t="n">
+        <v>48758</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1098621035</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUZ       </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BARRERA</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3243071026</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920841</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I25" t="n">
+        <v>93802</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1081788642</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ELVIA ROSA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FONSECA</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3243071028</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920842</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I26" t="n">
+        <v>40627</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1054120552</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>OMAR ALFON</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CERON</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3243071033</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920843</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I27" t="n">
+        <v>65566</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1118826974</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>YILKA MILE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ZUÑIGA</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3243071039</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920844</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50677</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>98566217</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>WILSON DAR</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ARCILA</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3243071048</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920845</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I29" t="n">
+        <v>64490</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7165753</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MIGUEL ANT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ARIAS</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3243071049</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920846</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I30" t="n">
+        <v>40643</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59818148</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MARISOL GE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ARCOS</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3243071056</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920847</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I31" t="n">
+        <v>26392</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1000587602</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MARCO ANTO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>REAY</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3243071057</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920848</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9225</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>91042122</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARNULFO   </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ESTEVEZ</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3243071068</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920849</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I33" t="n">
+        <v>91565</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1085285737</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ANGIE YERA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ORTEGA</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3243071075</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920850</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I34" t="n">
+        <v>80359</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1085323703</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>HENRY ARMA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VELASCO</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3243071076</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920851</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8856</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9023736</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIGUEL    </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CAMPO</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3243071093</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920852</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6454</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1143863062</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ANGIE LIZE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LOPEZ</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3243071105</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920853</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I37" t="n">
+        <v>56208</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22738886</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>KELIS JOHA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PEDUZINE</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3243071128</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920854</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I38" t="n">
+        <v>33071</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1073244123</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ANGIE PAOL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LOPEZ</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3243071131</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920855</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I39" t="n">
+        <v>81415</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1014189150</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>JONATHAN F</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PINZON</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3243071135</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920856</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I40" t="n">
+        <v>37194</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5722833</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HERIBERTO </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>RINCON</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3243071173</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920857</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I41" t="n">
+        <v>60073</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7163357</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RODOLFO   </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GOMEZ</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3243071183</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920858</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I42" t="n">
+        <v>48752</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52831140</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MARIA FERN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>QUINONES</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3243071191</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920859</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I43" t="n">
+        <v>42553</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28487709</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LINA FLOR </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FRANCO</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3243071194</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920860</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14442</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1065603381</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YULEIBIS  </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MEJIA</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3243071196</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920861</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8399</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52068219</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARITZA   </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LADINO</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3243071201</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920862</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I46" t="n">
+        <v>66078</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>67039679</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ANGELA YUR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3243075894</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920863</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I47" t="n">
+        <v>67846</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52748196</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARTHA    </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MILENA COMBITA</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3243075907</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920864</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I48" t="n">
+        <v>42183</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>67018468</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PAULA ANDR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AVILA</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3243075917</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920865</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I49" t="n">
+        <v>95049</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1052411190</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAMILA AND</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TORRES</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3243075936</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920866</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I50" t="n">
+        <v>95695</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1093799197</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CLARA YNES</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LEON</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3243075938</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920867</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I51" t="n">
+        <v>32533</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1057786320</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEBASTIAN </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MARULANDA</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3243075946</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920868</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I52" t="n">
+        <v>85554</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50993483</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MARIA NICO</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>JULIO</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3243075951</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920869</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I53" t="n">
+        <v>92575</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1056592919</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DUBAN ALIR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ALVAREZ</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3243075955</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920870</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I54" t="n">
+        <v>315</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1037633356</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>WILLIAM FE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>USUGA</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3243075956</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920871</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I55" t="n">
+        <v>96670</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1075317150</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMILO AND</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>COLLAZOS</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3243075976</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920872</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I56" t="n">
+        <v>18945</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35263563</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MARIA CRIS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VACA</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3243075980</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920873</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30329</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1144124362</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHRISTIAN </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DIAZ</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3243075987</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920874</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I58" t="n">
+        <v>79015</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1090453455</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JENNYFER  </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ZUÑIGA</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3243075996</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920875</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43953</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1073154680</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ANGIE LISE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VALLEJO</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3243076001</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920876</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22932</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1102371506</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DIANA MAYE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>JAIMES</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3243076008</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920877</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I61" t="n">
+        <v>44635</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>923240</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RICARDO AL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ASENCIO</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3243076052</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920878</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I62" t="n">
+        <v>34931</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>44546821</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>14252374</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CARLOS ERN</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BOLIVAR</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>3243075819</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920879</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I63" t="n">
+        <v>44144</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1128472054</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIEGO LEON</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CORREA</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3243075823</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920880</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I64" t="n">
+        <v>33090</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>41300718</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ANA GRACIE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>BOHORQUEZ</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3243075829</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920881</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I65" t="n">
+        <v>35116</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1093913189</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>JENNY KATH</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3243075830</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920882</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I66" t="n">
+        <v>72037</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1121931573</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>LINA FERND</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GARZON</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3243075845</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920883</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I67" t="n">
+        <v>26256</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>79604650</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MAGNER AND</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ROMERO</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3243075851</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920884</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I68" t="n">
+        <v>31101</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1099683858</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>LEIDY NATH</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DIAZ</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3243075857</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920885</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I69" t="n">
+        <v>32261</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>93371506</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>JOSE DARIO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PEÑA</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3243075867</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920886</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I70" t="n">
+        <v>76701</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1037581135</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMILO    </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>HURTADO</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3243075890</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920887</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I71" t="n">
+        <v>63274</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1045711440</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ALBERTO ED</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>RAMOS</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3243075891</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920888</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1630</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1030694396</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>HEIDY TATI</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3243075893</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920889</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I73" t="n">
+        <v>97033</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>13854474</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDWIN     </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ARMESTO</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3243075772</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920890</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I74" t="n">
+        <v>90693</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4686443</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RUBIO HUMB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>QUIRA</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3243075779</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920891</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I75" t="n">
+        <v>87488</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>50901348</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ERLINDA IS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GALVIS</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3243075780</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920892</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I76" t="n">
+        <v>90634</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1053340516</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ROBINSON D</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CORTES</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3243075790</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920893</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29681</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1014244800</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>JUAN PABLO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>DIAZ</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3243075792</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920894</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I78" t="n">
+        <v>97282</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>66810899</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARYSOL   </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>VALENCIA</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3243075796</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920895</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I79" t="n">
+        <v>89627</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1124824029</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LAURA NATA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>VILLAMIL</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3243075797</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920896</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I80" t="n">
+        <v>66548</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20358313</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESURA    </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MOLINA</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3243075815</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920897</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14421</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1012415643</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>GISSEL DAY</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FERREIRA</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3243075818</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920898</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I82" t="n">
+        <v>75684</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1116784019</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MARIA ALEJ</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3243076113</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920899</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I83" t="n">
+        <v>31714</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>23437620</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BERENICE  </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SALAZAR</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3243076147</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920900</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I84" t="n">
+        <v>88410</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>31169230</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NANCY GUAD</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>RIVERA</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>3243076157</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920901</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I85" t="n">
+        <v>38298</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1107058475</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CINDY PAO </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ANGULO</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3243076164</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920902</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I86" t="n">
+        <v>14191</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1057598431</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>JUAN SEBAS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MONTAÑES</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3243076169</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920903</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I87" t="n">
+        <v>72611</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1030700106</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NICOLAS AL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>VILLALBA</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>3243075740</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920904</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3897</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38436738</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARITZA   </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CASTRO</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>3243075741</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920905</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7296</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>74369902</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LUIS HUMBE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>VELANDIA</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3243075748</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920906</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I90" t="n">
+        <v>20128</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>44546950</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1086102037</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVIANA   </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MALLAMA</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3243075755</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920907</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I91" t="n">
+        <v>30746</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>44547012</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>172.34</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7277355</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RODRIGO   </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>BALLESTERO</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>3243075769</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920908</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I92" t="n">
+        <v>26830</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>44547064</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>149.1</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>41915272</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AYDA LUZ  </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>LOAIZA</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>3243076055</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920909</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I93" t="n">
+        <v>67630</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>44547142</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>150.44</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1001314411</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUISA     </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MONTOYA</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>3243076057</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920910</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I94" t="n">
+        <v>54747</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>44547213</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>170.62</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1040032535</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MIRIAM AMP</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CASTANO</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>3243076058</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920911</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I95" t="n">
+        <v>45526</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>44547274</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>148.5</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>32005331</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TERESA    </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3243076084</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920912</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I96" t="n">
+        <v>23159</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>44547337</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>170.92</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>51933241</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MARIA CARO</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>MUNAR</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>3243076320</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920913</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12223</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>44547391</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>169.82</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>23792129</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARGARITA </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>RUIZ</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>3243076324</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920914</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19006</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>44547445</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>170.2</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1129512255</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YURLEIDYS </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NIZ</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3243076326</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920915</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I99" t="n">
+        <v>95570</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>44547552</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>146.45</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>7188286</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CARLOS HER</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BARBOSA</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3243076327</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920916</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I100" t="n">
+        <v>71314</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>44547642</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>148.86</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1069178910</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VALENTINA </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PADILLA</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3243076331</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920917</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I101" t="n">
+        <v>61653</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>44547703</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>149.08</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1088343324</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MARIA FERN</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ALZATE</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3243076337</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920918</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I102" t="n">
+        <v>34490</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>44547773</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>148.55</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>53074632</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>LUZ ANGELA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ACEVEDO</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>3243076338</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920919</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I103" t="n">
+        <v>52063</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>44547920</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>169.44</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1012438614</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>JASSER NAF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>LIAN</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>3243076339</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920920</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I104" t="n">
+        <v>60466</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>44547999</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>169.61</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1144126789</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ANDRES FEL</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>DIAZ</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>3243076342</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920921</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I105" t="n">
+        <v>17990</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>DOCUMENTO NO APLICA PARA ACTIVACIÓN POLIEDRO</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>80918883</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WILSON    </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PATIÑO</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>3243076358</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920922</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I106" t="n">
+        <v>60719</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>44548108</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>167.36</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1106741117</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ERIKA FERN</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>MATTA</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>3243076368</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920923</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I107" t="n">
+        <v>91770</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>44548268</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>148.73</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>8851983</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSE LUIS </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>DEL VILLAR</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>3243076375</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920924</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I108" t="n">
+        <v>37023</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>44548340</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>148.49</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>79105007</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SEGUNDO LU</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>BENAVIDES</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3243076390</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920925</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I109" t="n">
+        <v>71406</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>44548408</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>151.25</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1098803654</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEBASTIAN </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>BAUTISTA</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3243076395</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920926</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I110" t="n">
+        <v>54741</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>DOCUMENTO NO APLICA PARA ACTIVACIÓN POLIEDRO</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>71217986</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>JOHN FERNA</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MARIN</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3243076407</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920927</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I111" t="n">
+        <v>21944</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>44548624</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>168.56</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1005161167</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MARTHA LIZ</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>ARMENTA</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>3243076422</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920928</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I112" t="n">
+        <v>77630</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>44554255</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>152.62</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1053331224</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>JOHN ALEXA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>PAEZ</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3243076435</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920929</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I113" t="n">
+        <v>31697</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>44548799</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>167.34</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1114489557</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DANIELA   </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>ESCOBAR</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>3243076460</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920930</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I114" t="n">
+        <v>49800</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>44548893</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>171.26</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1096255181</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NATALIA AN</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SERNA</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>3243076462</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920931</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I115" t="n">
+        <v>99355</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>38641154</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PAOLA ANDR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SOTO</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3243076470</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920932</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I116" t="n">
+        <v>52229</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>44549120</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1040754815</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MATHEW    </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>HERRERA</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>3243076486</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920933</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I117" t="n">
+        <v>75618</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>44549209</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>170.16</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1079509637</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>LOREN CAMI</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>3243076493</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920934</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I118" t="n">
+        <v>18900</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>44549405</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>149.74</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1216719883</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANUELA   </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3243076500</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920935</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I119" t="n">
+        <v>72693</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>25878128</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>JAIDITH MA</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ARGUMEDO</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>3243076502</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920936</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I120" t="n">
+        <v>17533</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>44549661</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1107100355</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ANGELA MAR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>HERRERA</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>3243076503</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920937</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I121" t="n">
+        <v>38140</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>44549738</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>149.04</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1061790692</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PAOLA ANDR</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>MERA</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>3243076511</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920938</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7271</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>44549833</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>175.4</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>91295634</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JORGE     </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>MANRIQUE</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>3243076516</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920939</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I123" t="n">
+        <v>71126</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>44549919</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>149.31</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>79815099</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>JOSE LIBAR</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>MONTOYA</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3243076522</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920940</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I124" t="n">
+        <v>33329</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>44550010</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>149.13</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1006323512</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DANIEL FEL</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>VASCO</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>3243076523</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920941</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I125" t="n">
+        <v>87372</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>44550149</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>149.17</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>65700431</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELIZABETH </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>MELO</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>3243076525</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920942</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I126" t="n">
+        <v>84119</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>44550286</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>173.95</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>37798322</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELIANA    </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>TORRES</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>3243076175</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920943</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I127" t="n">
+        <v>96527</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>44550397</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>35415801</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>FLOR ANGEL</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CARDENAS</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3243076176</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920944</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I128" t="n">
+        <v>99040</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>44550484</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>170.55</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1024556835</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>LAURA MARI</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>3243076178</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920945</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I129" t="n">
+        <v>45989</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>44550585</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>172.92</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>41688430</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ROSA MARIA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>LOZANO</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>3243076182</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920946</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I130" t="n">
+        <v>98633</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>44550671</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>147.41</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1010183271</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>JULIANA AD</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CASTRO</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>3243076183</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920947</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I131" t="n">
+        <v>88051</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>44550774</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>171.06</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1059903394</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUBY      </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GOMEZ</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>3243076185</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920948</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I132" t="n">
+        <v>67514</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>44550905</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>169.58</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1061792378</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DANIEL ALB</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MENDEZ</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>3243076195</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920949</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I133" t="n">
+        <v>57305</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>49660036</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NELLYS    </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CAVADIAS</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>3243076198</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920950</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I134" t="n">
+        <v>49548</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>44551122</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>39575923</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SHIRLEY YA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CERVERA</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>3243076199</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920951</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I135" t="n">
+        <v>22026</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>44551257</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>169.82</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>85155270</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>LUIS ALFON</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>3243076241</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920952</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9999</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>44551372</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>171.69</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1002477504</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>JHONATAN J</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>RUEDA</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>3243076247</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920953</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I137" t="n">
+        <v>92987</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>44551498</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>148.8</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>86080339</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>LUIS ALEJA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>TRIANA</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>3243076264</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920954</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I138" t="n">
+        <v>90302</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>44551619</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>169.13</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1144198519</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LEIDY MILE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>DEAZA</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>3243076282</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920955</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I139" t="n">
+        <v>41130</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>44551754</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>170.77</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1111809859</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>JUAN SEBAS</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>FLORES</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>3243076285</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920956</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I140" t="n">
+        <v>75776</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>44551865</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>157.74</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>7381870</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>EVELIO JES</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>DE HOYOS</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>3243076290</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920957</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I141" t="n">
+        <v>45902</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>44551980</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>170.51</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>91473445</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ARY RODRIG</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>CORDOBA</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3243076293</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920958</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I142" t="n">
+        <v>26705</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>44552101</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>170.33</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1235253767</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DARWIN RAF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>MARRIAGA</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>3243076299</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920959</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I143" t="n">
+        <v>41297</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>44552222</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>149.99</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>40034999</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LORENA    </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>ROJAS</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>3243076303</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920960</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I144" t="n">
+        <v>27005</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>43266259</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>LINA MARIA</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GOMEZ</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>3243076317</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920961</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3083</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1017238320</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>JUAN FERNA</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>HENAO</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>3243076318</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920962</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I146" t="n">
+        <v>56247</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1065900651</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>AGUSTIN AL</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>CASTAÑEDA</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>3243074408</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920963</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I147" t="n">
+        <v>76736</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1102883008</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>JORGE MILE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>DANCUR</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>3243074409</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920964</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I148" t="n">
+        <v>6068</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1065582016</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>FRANSIS EL</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>CANTILLO</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>3243074410</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920965</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3433</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Se necesita Min preactivado</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>14621406</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>JOSE GREGO</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>LIBREROS</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>3243074412</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920966</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I150" t="n">
+        <v>70028</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>52914721</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>MARTHA JEA</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>RIVERA</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>3243074413</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920967</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I151" t="n">
+        <v>35847</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>74188086</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>HUGO SILVE</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>MENDIVELSO</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>3243074418</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920968</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I152" t="n">
+        <v>81347</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>38614353</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NINI JHOAN</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ORTIZ</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3243074427</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920969</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I153" t="n">
+        <v>46940</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>8033087</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>JUAN DAVID</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>RAMIREZ</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>3243074398</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920970</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I154" t="n">
+        <v>44854</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1012403330</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>YURY MARIT</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>LEON</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>3243074399</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920971</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I155" t="n">
+        <v>57698</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>31529635</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROCIO     </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>ALVARADO</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>3243074444</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920972</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I156" t="n">
+        <v>44147</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1073244180</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>JUAN DIEGO</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>3243074457</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920973</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I157" t="n">
+        <v>484</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1097033316</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>JEISSON FE</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>LOPEZ</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>3243074466</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920974</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I158" t="n">
+        <v>65235</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>22857455</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>YANIRIS DE</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>MARTINEZ</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3243074469</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920975</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I159" t="n">
+        <v>91133</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>11312316</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVIER    </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>ALVAREZ</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>3243074471</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920976</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I160" t="n">
+        <v>89062</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>63343000</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>LUZ MARINA</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>BARBOSA</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>3243074485</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920977</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I161" t="n">
+        <v>70610</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1019076218</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SOL VIVIAN</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>CAMACHO</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>3243074487</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920978</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I162" t="n">
+        <v>37157</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1022971187</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ARIEL YESI</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>IBANEZ</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>3243074496</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920979</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I163" t="n">
+        <v>56104</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>901202094</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIVINA    </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>INSPIRACION</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>3243074504</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920980</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I164" t="n">
+        <v>43919</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1069738505</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>JOHAN SEBA</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>PARRA</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3243074505</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920981</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I165" t="n">
+        <v>65727</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1143248074</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JHONNATAN </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SANJUAN</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>3243074506</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920982</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I166" t="n">
+        <v>52567</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1126241153</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YULIBETH  </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>RANGEL</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>3243074511</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920983</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I167" t="n">
+        <v>83938</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1017240791</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>JUAN CAMIL</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>STERLING</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>3243074518</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920984</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I168" t="n">
+        <v>11587</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>52655513</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANGELA    </t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>RICO</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>3243074519</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920985</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5458</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1109301846</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ANDRES FEL</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>RAMIREZ</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>3243074522</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920986</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I170" t="n">
+        <v>47088</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1126256195</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>CARLOS ERN</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>VASQUEZ</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>3243074528</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920987</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I171" t="n">
+        <v>94815</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>41920294</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DANIEL ALE</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>MARIN</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>3243074542</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920988</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I172" t="n">
+        <v>98963</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>16916234</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIESOTH   </t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>MURILLO</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>3243074544</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920989</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I173" t="n">
+        <v>88411</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>26476824</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALICIA    </t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>3243074298</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920990</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3387</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1053770362</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DANIEL EDU</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>PINZON</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>3243074299</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920991</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I175" t="n">
+        <v>60673</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1037575444</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>32725</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAROLINA  </t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>AGUDELO</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>3243074300</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57101602503920992</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="n">
+        <v>1038626820</v>
+      </c>
+      <c r="I176" t="n">
+        <v>82452</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>paquistan21@hotmail.com</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>prepago</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
